--- a/Project/WebProject/Data2Mongo/ChinaBonds/2018年中债国债收益率曲线标准期限信息.xlsx
+++ b/Project/WebProject/Data2Mongo/ChinaBonds/2018年中债国债收益率曲线标准期限信息.xlsx
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4807">
+  <cellXfs count="5191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -160,6 +160,390 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -29000,6 +29384,1926 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" s="4807" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1202" s="4808" t="inlineStr">
+        <is>
+          <t>0d</t>
+        </is>
+      </c>
+      <c r="C1202" s="4809" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1202" s="4810" t="inlineStr">
+        <is>
+          <t>2.6992</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="4811" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1203" s="4812" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="C1203" s="4813" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1203" s="4814" t="inlineStr">
+        <is>
+          <t>2.8846</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="4815" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1204" s="4816" t="inlineStr">
+        <is>
+          <t>2m</t>
+        </is>
+      </c>
+      <c r="C1204" s="4817" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D1204" s="4818" t="inlineStr">
+        <is>
+          <t>2.7372</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="4819" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1205" s="4820" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="C1205" s="4821" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1205" s="4822" t="inlineStr">
+        <is>
+          <t>2.6921</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="4823" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1206" s="4824" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="C1206" s="4825" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1206" s="4826" t="inlineStr">
+        <is>
+          <t>2.7919</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="4827" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1207" s="4828" t="inlineStr">
+        <is>
+          <t>9m</t>
+        </is>
+      </c>
+      <c r="C1207" s="4829" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1207" s="4830" t="inlineStr">
+        <is>
+          <t>2.9604</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="4831" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1208" s="4832" t="inlineStr">
+        <is>
+          <t>1y</t>
+        </is>
+      </c>
+      <c r="C1208" s="4833" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D1208" s="4834" t="inlineStr">
+        <is>
+          <t>3.0484</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="4835" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1209" s="4836" t="inlineStr">
+        <is>
+          <t>3y</t>
+        </is>
+      </c>
+      <c r="C1209" s="4837" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D1209" s="4838" t="inlineStr">
+        <is>
+          <t>3.217</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="4839" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1210" s="4840" t="inlineStr">
+        <is>
+          <t>5y</t>
+        </is>
+      </c>
+      <c r="C1210" s="4841" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D1210" s="4842" t="inlineStr">
+        <is>
+          <t>3.3306</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="4843" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1211" s="4844" t="inlineStr">
+        <is>
+          <t>7y</t>
+        </is>
+      </c>
+      <c r="C1211" s="4845" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D1211" s="4846" t="inlineStr">
+        <is>
+          <t>3.5383</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="4847" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1212" s="4848" t="inlineStr">
+        <is>
+          <t>10y</t>
+        </is>
+      </c>
+      <c r="C1212" s="4849" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D1212" s="4850" t="inlineStr">
+        <is>
+          <t>3.6019</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="4851" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1213" s="4852" t="inlineStr">
+        <is>
+          <t>15y</t>
+        </is>
+      </c>
+      <c r="C1213" s="4853" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D1213" s="4854" t="inlineStr">
+        <is>
+          <t>3.8805</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="4855" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1214" s="4856" t="inlineStr">
+        <is>
+          <t>20y</t>
+        </is>
+      </c>
+      <c r="C1214" s="4857" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D1214" s="4858" t="inlineStr">
+        <is>
+          <t>3.9195</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="4859" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1215" s="4860" t="inlineStr">
+        <is>
+          <t>30y</t>
+        </is>
+      </c>
+      <c r="C1215" s="4861" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D1215" s="4862" t="inlineStr">
+        <is>
+          <t>4.0511</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="4863" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1216" s="4864" t="inlineStr">
+        <is>
+          <t>40y</t>
+        </is>
+      </c>
+      <c r="C1216" s="4865" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D1216" s="4866" t="inlineStr">
+        <is>
+          <t>4.0897</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="4867" t="inlineStr">
+        <is>
+          <t>2018/04/23</t>
+        </is>
+      </c>
+      <c r="B1217" s="4868" t="inlineStr">
+        <is>
+          <t>50y</t>
+        </is>
+      </c>
+      <c r="C1217" s="4869" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D1217" s="4870" t="inlineStr">
+        <is>
+          <t>4.1059</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="4871" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1218" s="4872" t="inlineStr">
+        <is>
+          <t>0d</t>
+        </is>
+      </c>
+      <c r="C1218" s="4873" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1218" s="4874" t="inlineStr">
+        <is>
+          <t>3.3905</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="4875" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1219" s="4876" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="C1219" s="4877" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1219" s="4878" t="inlineStr">
+        <is>
+          <t>3.4121</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="4879" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1220" s="4880" t="inlineStr">
+        <is>
+          <t>2m</t>
+        </is>
+      </c>
+      <c r="C1220" s="4881" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D1220" s="4882" t="inlineStr">
+        <is>
+          <t>2.9055</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="4883" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1221" s="4884" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="C1221" s="4885" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1221" s="4886" t="inlineStr">
+        <is>
+          <t>2.7495</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="4887" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1222" s="4888" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="C1222" s="4889" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1222" s="4890" t="inlineStr">
+        <is>
+          <t>2.8221</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="4891" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1223" s="4892" t="inlineStr">
+        <is>
+          <t>9m</t>
+        </is>
+      </c>
+      <c r="C1223" s="4893" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1223" s="4894" t="inlineStr">
+        <is>
+          <t>2.9634</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="4895" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1224" s="4896" t="inlineStr">
+        <is>
+          <t>1y</t>
+        </is>
+      </c>
+      <c r="C1224" s="4897" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D1224" s="4898" t="inlineStr">
+        <is>
+          <t>3.0152</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="4899" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1225" s="4900" t="inlineStr">
+        <is>
+          <t>3y</t>
+        </is>
+      </c>
+      <c r="C1225" s="4901" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D1225" s="4902" t="inlineStr">
+        <is>
+          <t>3.1779</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="4903" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1226" s="4904" t="inlineStr">
+        <is>
+          <t>5y</t>
+        </is>
+      </c>
+      <c r="C1226" s="4905" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D1226" s="4906" t="inlineStr">
+        <is>
+          <t>3.2858</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="4907" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1227" s="4908" t="inlineStr">
+        <is>
+          <t>7y</t>
+        </is>
+      </c>
+      <c r="C1227" s="4909" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D1227" s="4910" t="inlineStr">
+        <is>
+          <t>3.5367</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="4911" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1228" s="4912" t="inlineStr">
+        <is>
+          <t>10y</t>
+        </is>
+      </c>
+      <c r="C1228" s="4913" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D1228" s="4914" t="inlineStr">
+        <is>
+          <t>3.5855</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="4915" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1229" s="4916" t="inlineStr">
+        <is>
+          <t>15y</t>
+        </is>
+      </c>
+      <c r="C1229" s="4917" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D1229" s="4918" t="inlineStr">
+        <is>
+          <t>3.8736</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="4919" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1230" s="4920" t="inlineStr">
+        <is>
+          <t>20y</t>
+        </is>
+      </c>
+      <c r="C1230" s="4921" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D1230" s="4922" t="inlineStr">
+        <is>
+          <t>3.9126</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="4923" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1231" s="4924" t="inlineStr">
+        <is>
+          <t>30y</t>
+        </is>
+      </c>
+      <c r="C1231" s="4925" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D1231" s="4926" t="inlineStr">
+        <is>
+          <t>4.0509</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="4927" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1232" s="4928" t="inlineStr">
+        <is>
+          <t>40y</t>
+        </is>
+      </c>
+      <c r="C1232" s="4929" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D1232" s="4930" t="inlineStr">
+        <is>
+          <t>4.0895</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="4931" t="inlineStr">
+        <is>
+          <t>2018/04/24</t>
+        </is>
+      </c>
+      <c r="B1233" s="4932" t="inlineStr">
+        <is>
+          <t>50y</t>
+        </is>
+      </c>
+      <c r="C1233" s="4933" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D1233" s="4934" t="inlineStr">
+        <is>
+          <t>4.1057</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="4935" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1234" s="4936" t="inlineStr">
+        <is>
+          <t>0d</t>
+        </is>
+      </c>
+      <c r="C1234" s="4937" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1234" s="4938" t="inlineStr">
+        <is>
+          <t>2.9902</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="4939" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1235" s="4940" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="C1235" s="4941" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1235" s="4942" t="inlineStr">
+        <is>
+          <t>3.0543</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="4943" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1236" s="4944" t="inlineStr">
+        <is>
+          <t>2m</t>
+        </is>
+      </c>
+      <c r="C1236" s="4945" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D1236" s="4946" t="inlineStr">
+        <is>
+          <t>2.9015</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="4947" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1237" s="4948" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="C1237" s="4949" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1237" s="4950" t="inlineStr">
+        <is>
+          <t>2.7394</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="4951" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1238" s="4952" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="C1238" s="4953" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1238" s="4954" t="inlineStr">
+        <is>
+          <t>2.8301</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="4955" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1239" s="4956" t="inlineStr">
+        <is>
+          <t>9m</t>
+        </is>
+      </c>
+      <c r="C1239" s="4957" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1239" s="4958" t="inlineStr">
+        <is>
+          <t>2.9928</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="4959" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1240" s="4960" t="inlineStr">
+        <is>
+          <t>1y</t>
+        </is>
+      </c>
+      <c r="C1240" s="4961" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D1240" s="4962" t="inlineStr">
+        <is>
+          <t>3.0247</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="4963" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1241" s="4964" t="inlineStr">
+        <is>
+          <t>3y</t>
+        </is>
+      </c>
+      <c r="C1241" s="4965" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D1241" s="4966" t="inlineStr">
+        <is>
+          <t>3.178</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="4967" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1242" s="4968" t="inlineStr">
+        <is>
+          <t>5y</t>
+        </is>
+      </c>
+      <c r="C1242" s="4969" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D1242" s="4970" t="inlineStr">
+        <is>
+          <t>3.2657</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="4971" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1243" s="4972" t="inlineStr">
+        <is>
+          <t>7y</t>
+        </is>
+      </c>
+      <c r="C1243" s="4973" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D1243" s="4974" t="inlineStr">
+        <is>
+          <t>3.584</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="4975" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1244" s="4976" t="inlineStr">
+        <is>
+          <t>10y</t>
+        </is>
+      </c>
+      <c r="C1244" s="4977" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D1244" s="4978" t="inlineStr">
+        <is>
+          <t>3.6118</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="4979" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1245" s="4980" t="inlineStr">
+        <is>
+          <t>15y</t>
+        </is>
+      </c>
+      <c r="C1245" s="4981" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D1245" s="4982" t="inlineStr">
+        <is>
+          <t>3.8999</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="4983" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1246" s="4984" t="inlineStr">
+        <is>
+          <t>20y</t>
+        </is>
+      </c>
+      <c r="C1246" s="4985" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D1246" s="4986" t="inlineStr">
+        <is>
+          <t>3.9389</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="4987" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1247" s="4988" t="inlineStr">
+        <is>
+          <t>30y</t>
+        </is>
+      </c>
+      <c r="C1247" s="4989" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D1247" s="4990" t="inlineStr">
+        <is>
+          <t>4.076</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="4991" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1248" s="4992" t="inlineStr">
+        <is>
+          <t>40y</t>
+        </is>
+      </c>
+      <c r="C1248" s="4993" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D1248" s="4994" t="inlineStr">
+        <is>
+          <t>4.1146</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="4995" t="inlineStr">
+        <is>
+          <t>2018/04/25</t>
+        </is>
+      </c>
+      <c r="B1249" s="4996" t="inlineStr">
+        <is>
+          <t>50y</t>
+        </is>
+      </c>
+      <c r="C1249" s="4997" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D1249" s="4998" t="inlineStr">
+        <is>
+          <t>4.1308</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="4999" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1250" s="5000" t="inlineStr">
+        <is>
+          <t>0d</t>
+        </is>
+      </c>
+      <c r="C1250" s="5001" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1250" s="5002" t="inlineStr">
+        <is>
+          <t>3.2512</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="5003" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1251" s="5004" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="C1251" s="5005" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1251" s="5006" t="inlineStr">
+        <is>
+          <t>3.1382</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="5007" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1252" s="5008" t="inlineStr">
+        <is>
+          <t>2m</t>
+        </is>
+      </c>
+      <c r="C1252" s="5009" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D1252" s="5010" t="inlineStr">
+        <is>
+          <t>3.1079</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="5011" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1253" s="5012" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="C1253" s="5013" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1253" s="5014" t="inlineStr">
+        <is>
+          <t>2.7394</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="5015" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1254" s="5016" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="C1254" s="5017" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1254" s="5018" t="inlineStr">
+        <is>
+          <t>2.8299</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="5019" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1255" s="5020" t="inlineStr">
+        <is>
+          <t>9m</t>
+        </is>
+      </c>
+      <c r="C1255" s="5021" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1255" s="5022" t="inlineStr">
+        <is>
+          <t>2.9917</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="5023" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1256" s="5024" t="inlineStr">
+        <is>
+          <t>1y</t>
+        </is>
+      </c>
+      <c r="C1256" s="5025" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D1256" s="5026" t="inlineStr">
+        <is>
+          <t>3.0279</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="5027" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1257" s="5028" t="inlineStr">
+        <is>
+          <t>3y</t>
+        </is>
+      </c>
+      <c r="C1257" s="5029" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D1257" s="5030" t="inlineStr">
+        <is>
+          <t>3.1832</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="5031" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1258" s="5032" t="inlineStr">
+        <is>
+          <t>5y</t>
+        </is>
+      </c>
+      <c r="C1258" s="5033" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D1258" s="5034" t="inlineStr">
+        <is>
+          <t>3.286</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="5035" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1259" s="5036" t="inlineStr">
+        <is>
+          <t>7y</t>
+        </is>
+      </c>
+      <c r="C1259" s="5037" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D1259" s="5038" t="inlineStr">
+        <is>
+          <t>3.6044</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="5039" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1260" s="5040" t="inlineStr">
+        <is>
+          <t>10y</t>
+        </is>
+      </c>
+      <c r="C1260" s="5041" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D1260" s="5042" t="inlineStr">
+        <is>
+          <t>3.6344</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="5043" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1261" s="5044" t="inlineStr">
+        <is>
+          <t>15y</t>
+        </is>
+      </c>
+      <c r="C1261" s="5045" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D1261" s="5046" t="inlineStr">
+        <is>
+          <t>3.9112</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="5047" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1262" s="5048" t="inlineStr">
+        <is>
+          <t>20y</t>
+        </is>
+      </c>
+      <c r="C1262" s="5049" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D1262" s="5050" t="inlineStr">
+        <is>
+          <t>3.9502</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="5051" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1263" s="5052" t="inlineStr">
+        <is>
+          <t>30y</t>
+        </is>
+      </c>
+      <c r="C1263" s="5053" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D1263" s="5054" t="inlineStr">
+        <is>
+          <t>4.076</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="5055" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1264" s="5056" t="inlineStr">
+        <is>
+          <t>40y</t>
+        </is>
+      </c>
+      <c r="C1264" s="5057" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D1264" s="5058" t="inlineStr">
+        <is>
+          <t>4.1146</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="5059" t="inlineStr">
+        <is>
+          <t>2018/04/26</t>
+        </is>
+      </c>
+      <c r="B1265" s="5060" t="inlineStr">
+        <is>
+          <t>50y</t>
+        </is>
+      </c>
+      <c r="C1265" s="5061" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D1265" s="5062" t="inlineStr">
+        <is>
+          <t>4.1308</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="5063" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1266" s="5064" t="inlineStr">
+        <is>
+          <t>0d</t>
+        </is>
+      </c>
+      <c r="C1266" s="5065" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1266" s="5066" t="inlineStr">
+        <is>
+          <t>3.2915</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="5067" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1267" s="5068" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="C1267" s="5069" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1267" s="5070" t="inlineStr">
+        <is>
+          <t>3.392</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="5071" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1268" s="5072" t="inlineStr">
+        <is>
+          <t>2m</t>
+        </is>
+      </c>
+      <c r="C1268" s="5073" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D1268" s="5074" t="inlineStr">
+        <is>
+          <t>3.3214</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="5075" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1269" s="5076" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="C1269" s="5077" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1269" s="5078" t="inlineStr">
+        <is>
+          <t>2.6895</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="5079" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1270" s="5080" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="C1270" s="5081" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1270" s="5082" t="inlineStr">
+        <is>
+          <t>2.8299</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="5083" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1271" s="5084" t="inlineStr">
+        <is>
+          <t>9m</t>
+        </is>
+      </c>
+      <c r="C1271" s="5085" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1271" s="5086" t="inlineStr">
+        <is>
+          <t>2.9799</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="5087" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1272" s="5088" t="inlineStr">
+        <is>
+          <t>1y</t>
+        </is>
+      </c>
+      <c r="C1272" s="5089" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D1272" s="5090" t="inlineStr">
+        <is>
+          <t>3.0155</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="5091" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1273" s="5092" t="inlineStr">
+        <is>
+          <t>3y</t>
+        </is>
+      </c>
+      <c r="C1273" s="5093" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D1273" s="5094" t="inlineStr">
+        <is>
+          <t>3.1989</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="5095" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1274" s="5096" t="inlineStr">
+        <is>
+          <t>5y</t>
+        </is>
+      </c>
+      <c r="C1274" s="5097" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D1274" s="5098" t="inlineStr">
+        <is>
+          <t>3.2911</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="5099" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1275" s="5100" t="inlineStr">
+        <is>
+          <t>7y</t>
+        </is>
+      </c>
+      <c r="C1275" s="5101" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D1275" s="5102" t="inlineStr">
+        <is>
+          <t>3.6307</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="5103" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1276" s="5104" t="inlineStr">
+        <is>
+          <t>10y</t>
+        </is>
+      </c>
+      <c r="C1276" s="5105" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D1276" s="5106" t="inlineStr">
+        <is>
+          <t>3.6364</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="5107" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1277" s="5108" t="inlineStr">
+        <is>
+          <t>15y</t>
+        </is>
+      </c>
+      <c r="C1277" s="5109" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D1277" s="5110" t="inlineStr">
+        <is>
+          <t>3.9201</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="5111" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1278" s="5112" t="inlineStr">
+        <is>
+          <t>20y</t>
+        </is>
+      </c>
+      <c r="C1278" s="5113" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D1278" s="5114" t="inlineStr">
+        <is>
+          <t>3.9591</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="5115" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1279" s="5116" t="inlineStr">
+        <is>
+          <t>30y</t>
+        </is>
+      </c>
+      <c r="C1279" s="5117" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D1279" s="5118" t="inlineStr">
+        <is>
+          <t>4.0912</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="5119" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1280" s="5120" t="inlineStr">
+        <is>
+          <t>40y</t>
+        </is>
+      </c>
+      <c r="C1280" s="5121" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D1280" s="5122" t="inlineStr">
+        <is>
+          <t>4.1298</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="5123" t="inlineStr">
+        <is>
+          <t>2018/04/27</t>
+        </is>
+      </c>
+      <c r="B1281" s="5124" t="inlineStr">
+        <is>
+          <t>50y</t>
+        </is>
+      </c>
+      <c r="C1281" s="5125" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D1281" s="5126" t="inlineStr">
+        <is>
+          <t>4.146</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="5127" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1282" s="5128" t="inlineStr">
+        <is>
+          <t>0d</t>
+        </is>
+      </c>
+      <c r="C1282" s="5129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1282" s="5130" t="inlineStr">
+        <is>
+          <t>2.9782</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="5131" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1283" s="5132" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="C1283" s="5133" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1283" s="5134" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="5135" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1284" s="5136" t="inlineStr">
+        <is>
+          <t>2m</t>
+        </is>
+      </c>
+      <c r="C1284" s="5137" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D1284" s="5138" t="inlineStr">
+        <is>
+          <t>3.2452</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="5139" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1285" s="5140" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="C1285" s="5141" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1285" s="5142" t="inlineStr">
+        <is>
+          <t>2.6691</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="5143" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1286" s="5144" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="C1286" s="5145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1286" s="5146" t="inlineStr">
+        <is>
+          <t>2.8102</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="5147" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1287" s="5148" t="inlineStr">
+        <is>
+          <t>9m</t>
+        </is>
+      </c>
+      <c r="C1287" s="5149" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1287" s="5150" t="inlineStr">
+        <is>
+          <t>2.9609</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="5151" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1288" s="5152" t="inlineStr">
+        <is>
+          <t>1y</t>
+        </is>
+      </c>
+      <c r="C1288" s="5153" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D1288" s="5154" t="inlineStr">
+        <is>
+          <t>2.9965</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="5155" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1289" s="5156" t="inlineStr">
+        <is>
+          <t>3y</t>
+        </is>
+      </c>
+      <c r="C1289" s="5157" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D1289" s="5158" t="inlineStr">
+        <is>
+          <t>3.1927</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="5159" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1290" s="5160" t="inlineStr">
+        <is>
+          <t>5y</t>
+        </is>
+      </c>
+      <c r="C1290" s="5161" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D1290" s="5162" t="inlineStr">
+        <is>
+          <t>3.2711</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="5163" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1291" s="5164" t="inlineStr">
+        <is>
+          <t>7y</t>
+        </is>
+      </c>
+      <c r="C1291" s="5165" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D1291" s="5166" t="inlineStr">
+        <is>
+          <t>3.6302</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="5167" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1292" s="5168" t="inlineStr">
+        <is>
+          <t>10y</t>
+        </is>
+      </c>
+      <c r="C1292" s="5169" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D1292" s="5170" t="inlineStr">
+        <is>
+          <t>3.6217</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="5171" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1293" s="5172" t="inlineStr">
+        <is>
+          <t>15y</t>
+        </is>
+      </c>
+      <c r="C1293" s="5173" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D1293" s="5174" t="inlineStr">
+        <is>
+          <t>3.9127</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="5175" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1294" s="5176" t="inlineStr">
+        <is>
+          <t>20y</t>
+        </is>
+      </c>
+      <c r="C1294" s="5177" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D1294" s="5178" t="inlineStr">
+        <is>
+          <t>3.9517</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="5179" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1295" s="5180" t="inlineStr">
+        <is>
+          <t>30y</t>
+        </is>
+      </c>
+      <c r="C1295" s="5181" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D1295" s="5182" t="inlineStr">
+        <is>
+          <t>4.0912</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="5183" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1296" s="5184" t="inlineStr">
+        <is>
+          <t>40y</t>
+        </is>
+      </c>
+      <c r="C1296" s="5185" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D1296" s="5186" t="inlineStr">
+        <is>
+          <t>4.1298</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="5187" t="inlineStr">
+        <is>
+          <t>2018/04/28</t>
+        </is>
+      </c>
+      <c r="B1297" s="5188" t="inlineStr">
+        <is>
+          <t>50y</t>
+        </is>
+      </c>
+      <c r="C1297" s="5189" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D1297" s="5190" t="inlineStr">
+        <is>
+          <t>4.146</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
